--- a/TM.RestHour/Import/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Import/IMOcrewlistForm5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{351FFFC4-A471-489A-8038-F5A8017CCA03}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE10CA4-215E-4DCE-A1EB-57190F80C257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Arrival</t>
   </si>
@@ -111,27 +111,6 @@
   </si>
   <si>
     <t>3. Date of  arrival/departure</t>
-  </si>
-  <si>
-    <t>OSX2</t>
-  </si>
-  <si>
-    <t>D5BJ5</t>
-  </si>
-  <si>
-    <t>SINGAPORE</t>
-  </si>
-  <si>
-    <t>LIBERIA</t>
-  </si>
-  <si>
-    <t>KARIMUN</t>
-  </si>
-  <si>
-    <t>14.05.2015</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>Page no.</t>
@@ -194,7 +173,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,14 +186,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -367,63 +340,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -431,6 +352,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -440,93 +385,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -543,71 +421,54 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -645,17 +506,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -679,6 +537,18 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1021,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:P24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,646 +916,655 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="70" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="68"/>
+      <c r="L5" s="60"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="4"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="51" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="30">
-        <v>8618217</v>
-      </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="60" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="60" t="s">
+      <c r="M6" s="54"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="23"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="6"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="33"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="60" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="6"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>6</v>
       </c>
-      <c r="M8" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="31"/>
-      <c r="O8" s="60" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>7</v>
       </c>
-      <c r="P8" s="31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="33"/>
-    </row>
-    <row r="10" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="6"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>11</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>12</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="6"/>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>13</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="8" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="6"/>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>14</v>
       </c>
-      <c r="I10" s="27" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="6"/>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>15</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="8" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>16</v>
       </c>
-      <c r="M10" s="27" t="s">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>17</v>
       </c>
-      <c r="N10" s="28"/>
-      <c r="O10" s="8" t="s">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>18</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>15</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>16</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>17</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>18</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>19</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="63"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="64"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="64"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="52"/>
-      <c r="L31" s="52"/>
-      <c r="M31" s="52"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="53"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="44"/>
+      <c r="L31" s="44"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="44"/>
+      <c r="O31" s="44"/>
+      <c r="P31" s="45"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="48"/>
     </row>
     <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="57"/>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="58"/>
-      <c r="K33" s="58"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="59"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="51"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Vln4kLHNrPE5eXmSRxwpaoOgk+NdY5kkdXg5F3DryJEiCloIcH+CL6/DimaAhsLHcpp+qI6jQcS+VLbUc5sv2Q==" saltValue="RxwMrUzPvXEZxv7i+HpXDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="82">
     <mergeCell ref="M26:N26"/>
     <mergeCell ref="F26:G26"/>

--- a/TM.RestHour/Import/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Import/IMOcrewlistForm5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE10CA4-215E-4DCE-A1EB-57190F80C257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A110E7-10C4-4165-B635-FDBAF702956E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Arrival</t>
   </si>
@@ -98,9 +98,6 @@
     <t>17. Expiry date of identity document</t>
   </si>
   <si>
-    <t>18. Date and signature by master, authorized agent or officer</t>
-  </si>
-  <si>
     <t>2.  Port of        arrival/departure</t>
   </si>
   <si>
@@ -114,6 +111,15 @@
   </si>
   <si>
     <t>Page no.</t>
+  </si>
+  <si>
+    <t>20. Date and signature by master, authorized agent or officer</t>
+  </si>
+  <si>
+    <t>18. Service Term - From</t>
+  </si>
+  <si>
+    <t>19. Service Term - To</t>
   </si>
 </sst>
 </file>
@@ -344,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -398,6 +404,24 @@
     <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -537,18 +561,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -889,186 +901,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" customWidth="1"/>
+    <col min="16" max="18" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="63"/>
-      <c r="I5" s="64"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="70"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="65" t="s">
+      <c r="K5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="60"/>
+      <c r="L5" s="66"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13"/>
       <c r="O5" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="43" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="44"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="52" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="52" t="s">
+      <c r="M6" s="60"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="23"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="49"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="25"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="52" t="s">
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="55"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="50"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="52" t="s">
+      <c r="M8" s="28"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="23"/>
-    </row>
-    <row r="9" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="25"/>
-    </row>
-    <row r="10" spans="1:16" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+    </row>
+    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1084,333 +1106,369 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="20"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="19" t="s">
+      <c r="M10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="20"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P10" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="66"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
       <c r="O11" s="18"/>
       <c r="P11" s="6"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
-      <c r="D12" s="66"/>
+      <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="32"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="38"/>
       <c r="O12" s="18"/>
       <c r="P12" s="6"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>3</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="66"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="27"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="30"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="32"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
       <c r="O13" s="18"/>
       <c r="P13" s="6"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="67"/>
+      <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="34"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>5</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="66"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>6</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="17"/>
-      <c r="D16" s="66"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="38"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="44"/>
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>7</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="66"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="36"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="38"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="44"/>
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>8</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="66"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="40"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="46"/>
       <c r="O18" s="18"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>9</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="66"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="32"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="38"/>
       <c r="O19" s="18"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>10</v>
       </c>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="66"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="32"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="38"/>
       <c r="O20" s="18"/>
       <c r="P20" s="6"/>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>11</v>
       </c>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="66"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
       <c r="O21" s="18"/>
       <c r="P21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>12</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="48"/>
       <c r="O22" s="18"/>
       <c r="P22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>13</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
-      <c r="D23" s="66"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="48"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6"/>
-    </row>
-    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>14</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="66"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="48"/>
       <c r="O24" s="18"/>
       <c r="P24" s="6"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>15</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="30"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="30"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="30"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="36"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1418,19 +1476,21 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="30"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="36"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1438,19 +1498,21 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="30"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>18</v>
       </c>
@@ -1458,19 +1520,21 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="30"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -1478,104 +1542,111 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="3"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="62"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="56"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="62"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="56"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="62"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="45"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="48"/>
-    </row>
-    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="50"/>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50"/>
-      <c r="P33" s="51"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="51"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="M26:N26"/>
+  <mergeCells count="86">
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I27:K27"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="P8:P9"/>
@@ -1612,6 +1683,7 @@
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="M19:N19"/>

--- a/TM.RestHour/Import/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Import/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A110E7-10C4-4165-B635-FDBAF702956E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C30CD-720E-4C4E-884D-36F195BCC7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Arrival</t>
   </si>
@@ -113,13 +113,16 @@
     <t>Page no.</t>
   </si>
   <si>
-    <t>20. Date and signature by master, authorized agent or officer</t>
-  </si>
-  <si>
     <t>18. Service Term - From</t>
   </si>
   <si>
     <t>19. Service Term - To</t>
+  </si>
+  <si>
+    <t>20. Department</t>
+  </si>
+  <si>
+    <t>21. Date and signature by master, authorized agent or officer</t>
   </si>
 </sst>
 </file>
@@ -350,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -422,6 +425,144 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -430,138 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R33"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -924,67 +933,67 @@
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="5.5546875" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="18" width="12.33203125" customWidth="1"/>
+    <col min="16" max="19" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-    </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+    </row>
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="40"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="71" t="s">
+      <c r="K5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="66"/>
+      <c r="L5" s="36"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13"/>
       <c r="O5" s="12" t="s">
@@ -993,104 +1002,109 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-    </row>
-    <row r="6" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="S5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="49" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="58" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="60"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="58" t="s">
+      <c r="M6" s="53"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="59"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-    </row>
-    <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="49" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="58" t="s">
+      <c r="G8" s="43"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="58" t="s">
+      <c r="M8" s="34"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-    </row>
-    <row r="9" spans="1:18" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-    </row>
-    <row r="10" spans="1:18" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+    </row>
+    <row r="9" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="1:19" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1106,25 +1120,25 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="72"/>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="26"/>
+      <c r="N10" s="72"/>
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1132,13 +1146,16 @@
         <v>19</v>
       </c>
       <c r="Q10" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="S10" s="25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1146,21 +1163,22 @@
       <c r="C11" s="14"/>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="30"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="62"/>
       <c r="O11" s="18"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="26"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1168,21 +1186,22 @@
       <c r="C12" s="15"/>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="38"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="62"/>
       <c r="O12" s="18"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S12" s="26"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1190,21 +1209,22 @@
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="36"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
       <c r="O13" s="18"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S13" s="26"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1212,21 +1232,22 @@
       <c r="C14" s="16"/>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="36"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="40"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
-    </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1234,21 +1255,22 @@
       <c r="C15" s="16"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="36"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="40"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="70"/>
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
-    </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S15" s="26"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1256,21 +1278,22 @@
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="42"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="36"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="44"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="66"/>
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
-    </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S16" s="26"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1278,21 +1301,22 @@
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="36"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="66"/>
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
-    </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S17" s="26"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1300,21 +1324,22 @@
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="46"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="36"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="46"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
       <c r="O18" s="18"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S18" s="26"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1322,21 +1347,22 @@
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="36"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="38"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
       <c r="O19" s="18"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
-    </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S19" s="26"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1344,21 +1370,22 @@
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="36"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="38"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="62"/>
       <c r="O20" s="18"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
-    </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S20" s="26"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1366,21 +1393,22 @@
       <c r="C21" s="14"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="48"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="48"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="55"/>
       <c r="O21" s="18"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
-    </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1388,21 +1416,22 @@
       <c r="C22" s="14"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="36"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="48"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="55"/>
       <c r="O22" s="18"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
-    </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S22" s="26"/>
+    </row>
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -1410,21 +1439,22 @@
       <c r="C23" s="14"/>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="55"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="36"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="48"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="55"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
-    </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S23" s="26"/>
+    </row>
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>14</v>
       </c>
@@ -1432,21 +1462,22 @@
       <c r="C24" s="14"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="36"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="48"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="55"/>
       <c r="O24" s="18"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
-    </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S24" s="26"/>
+    </row>
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -1454,21 +1485,22 @@
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="36"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="36"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="30"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
-    </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S25" s="26"/>
+    </row>
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1476,21 +1508,22 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="36"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="30"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="36"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="30"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
-    </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S26" s="26"/>
+    </row>
+    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1498,12 +1531,12 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="36"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="36"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
@@ -1511,8 +1544,9 @@
       <c r="P27" s="6"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
-    </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S27" s="26"/>
+    </row>
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>18</v>
       </c>
@@ -1520,12 +1554,12 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="36"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="36"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="30"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
@@ -1533,8 +1567,9 @@
       <c r="P28" s="6"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
-    </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -1542,12 +1577,12 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="36"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="30"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="3"/>
@@ -1555,107 +1590,118 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
-    </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="62"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="61"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="62"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="57"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="62"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="57"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="51"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
+      <c r="S30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="47"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="56"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="56"/>
-      <c r="M33" s="56"/>
-      <c r="N33" s="56"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="57"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
+  <mergeCells count="88">
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="A31:P33"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="A6:B7"/>
@@ -1672,6 +1718,23 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M26:N26"/>
     <mergeCell ref="M24:N24"/>
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="F24:G24"/>
@@ -1680,6 +1743,11 @@
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="F22:G22"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M25:N25"/>
@@ -1691,35 +1759,6 @@
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="M20:N20"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="M8:N9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>

--- a/TM.RestHour/Import/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Import/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18C30CD-720E-4C4E-884D-36F195BCC7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6BAB2-8519-4B05-87FE-9544A7558AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Arrival</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>21. Date and signature by master, authorized agent or officer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Department </t>
+  </si>
+  <si>
+    <t>Deck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engine </t>
+  </si>
+  <si>
+    <t>Catering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can add more departments in the highlighted region </t>
   </si>
 </sst>
 </file>
@@ -182,7 +197,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +210,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -349,11 +370,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -431,21 +476,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -512,12 +592,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -527,34 +601,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -910,10 +972,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,67 +995,69 @@
     <col min="13" max="13" width="8" customWidth="1"/>
     <col min="14" max="14" width="5.5546875" customWidth="1"/>
     <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="19" width="12.33203125" customWidth="1"/>
+    <col min="16" max="20" width="12.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-    </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+    </row>
+    <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="49"/>
       <c r="M5" s="2"/>
       <c r="N5" s="13"/>
       <c r="O5" s="12" t="s">
@@ -1003,108 +1067,113 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
-    </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="T5" s="29"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="42" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="51" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="53"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="51" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="42" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="43"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="51" t="s">
+      <c r="G8" s="56"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="51" t="s">
+      <c r="M8" s="47"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-    </row>
-    <row r="9" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-    </row>
-    <row r="10" spans="1:19" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="28"/>
+    </row>
+    <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="28"/>
+    </row>
+    <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -1120,25 +1189,25 @@
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="79"/>
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="71" t="s">
+      <c r="I10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="73"/>
-      <c r="K10" s="72"/>
+      <c r="J10" s="80"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="71" t="s">
+      <c r="M10" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="72"/>
+      <c r="N10" s="79"/>
       <c r="O10" s="4" t="s">
         <v>18</v>
       </c>
@@ -1154,8 +1223,12 @@
       <c r="S10" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T10" s="27"/>
+      <c r="W10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <v>1</v>
       </c>
@@ -1163,22 +1236,28 @@
       <c r="C11" s="14"/>
       <c r="D11" s="19"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="60"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="30"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="62"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
       <c r="O11" s="18"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="23"/>
       <c r="R11" s="23"/>
-      <c r="S11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="T11" s="30"/>
+      <c r="W11" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -1186,22 +1265,26 @@
       <c r="C12" s="15"/>
       <c r="D12" s="19"/>
       <c r="E12" s="18"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="60"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="30"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="9"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="62"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="40"/>
       <c r="O12" s="18"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T12" s="30"/>
+      <c r="W12" s="31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -1209,22 +1292,26 @@
       <c r="C13" s="15"/>
       <c r="D13" s="19"/>
       <c r="E13" s="18"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="30"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="62"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
       <c r="O13" s="18"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="23"/>
       <c r="R13" s="23"/>
       <c r="S13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T13" s="30"/>
+      <c r="W13" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <v>4</v>
       </c>
@@ -1232,22 +1319,27 @@
       <c r="C14" s="16"/>
       <c r="D14" s="20"/>
       <c r="E14" s="18"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="60"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="30"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
       <c r="L14" s="9"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="70"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="18"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="23"/>
       <c r="R14" s="23"/>
       <c r="S14" s="26"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T14" s="30"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <v>5</v>
       </c>
@@ -1255,22 +1347,25 @@
       <c r="C15" s="16"/>
       <c r="D15" s="19"/>
       <c r="E15" s="18"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="60"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="30"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="38"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="70"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="77"/>
       <c r="O15" s="18"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="23"/>
       <c r="R15" s="23"/>
       <c r="S15" s="26"/>
-    </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T15" s="30"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="33"/>
+    </row>
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <v>6</v>
       </c>
@@ -1278,22 +1373,25 @@
       <c r="C16" s="17"/>
       <c r="D16" s="19"/>
       <c r="E16" s="18"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="30"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="38"/>
       <c r="L16" s="9"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="18"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T16" s="30"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="33"/>
+    </row>
+    <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <v>7</v>
       </c>
@@ -1301,22 +1399,25 @@
       <c r="C17" s="17"/>
       <c r="D17" s="19"/>
       <c r="E17" s="18"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="30"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
       <c r="L17" s="9"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="66"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="18"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="26"/>
-    </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T17" s="30"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="33"/>
+    </row>
+    <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <v>8</v>
       </c>
@@ -1324,22 +1425,23 @@
       <c r="C18" s="17"/>
       <c r="D18" s="19"/>
       <c r="E18" s="18"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="68"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="30"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
       <c r="L18" s="9"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="68"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="73"/>
       <c r="O18" s="18"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="23"/>
       <c r="R18" s="23"/>
       <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T18" s="30"/>
+    </row>
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <v>9</v>
       </c>
@@ -1347,22 +1449,23 @@
       <c r="C19" s="14"/>
       <c r="D19" s="19"/>
       <c r="E19" s="18"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="30"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="40"/>
       <c r="O19" s="18"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="26"/>
-    </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T19" s="30"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <v>10</v>
       </c>
@@ -1370,22 +1473,23 @@
       <c r="C20" s="14"/>
       <c r="D20" s="19"/>
       <c r="E20" s="18"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="60"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="30"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
       <c r="L20" s="9"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="62"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="40"/>
       <c r="O20" s="18"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="23"/>
       <c r="R20" s="23"/>
       <c r="S20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T20" s="30"/>
+    </row>
+    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <v>11</v>
       </c>
@@ -1393,22 +1497,23 @@
       <c r="C21" s="14"/>
       <c r="D21" s="19"/>
       <c r="E21" s="18"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="30"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
       <c r="L21" s="9"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="55"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="18"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="23"/>
       <c r="R21" s="23"/>
       <c r="S21" s="26"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T21" s="30"/>
+    </row>
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <v>12</v>
       </c>
@@ -1416,22 +1521,23 @@
       <c r="C22" s="14"/>
       <c r="D22" s="19"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
       <c r="H22" s="9"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="30"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
       <c r="L22" s="9"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="55"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="18"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="23"/>
       <c r="R22" s="23"/>
       <c r="S22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T22" s="30"/>
+    </row>
+    <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <v>13</v>
       </c>
@@ -1439,22 +1545,23 @@
       <c r="C23" s="14"/>
       <c r="D23" s="19"/>
       <c r="E23" s="18"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="30"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="55"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="18"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="23"/>
       <c r="R23" s="23"/>
       <c r="S23" s="26"/>
-    </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T23" s="30"/>
+    </row>
+    <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <v>14</v>
       </c>
@@ -1462,22 +1569,23 @@
       <c r="C24" s="14"/>
       <c r="D24" s="19"/>
       <c r="E24" s="18"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="55"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="30"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="9"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="55"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="18"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="23"/>
       <c r="R24" s="23"/>
       <c r="S24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T24" s="30"/>
+    </row>
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <v>15</v>
       </c>
@@ -1485,22 +1593,23 @@
       <c r="C25" s="6"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="30"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="29"/>
-      <c r="N25" s="30"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="38"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T25" s="30"/>
+    </row>
+    <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <v>16</v>
       </c>
@@ -1508,22 +1617,23 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="30"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="30"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="6"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="38"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
       <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T26" s="30"/>
+    </row>
+    <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <v>17</v>
       </c>
@@ -1531,12 +1641,12 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="30"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
       <c r="N27" s="3"/>
@@ -1545,8 +1655,9 @@
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
       <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T27" s="30"/>
+    </row>
+    <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <v>18</v>
       </c>
@@ -1554,12 +1665,12 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="30"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
       <c r="N28" s="3"/>
@@ -1568,8 +1679,9 @@
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
       <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T28" s="30"/>
+    </row>
+    <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <v>19</v>
       </c>
@@ -1577,12 +1689,12 @@
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="30"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
       <c r="N29" s="3"/>
@@ -1591,86 +1703,88 @@
       <c r="Q29" s="23"/>
       <c r="R29" s="23"/>
       <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="30"/>
+    </row>
+    <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="57"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="68"/>
       <c r="L30" s="6"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="57"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
       <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
+      <c r="T30" s="30"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
-      <c r="K32" s="46"/>
-      <c r="L32" s="46"/>
-      <c r="M32" s="46"/>
-      <c r="N32" s="46"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="47"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="50"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="89">
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="S8:S9"/>
     <mergeCell ref="F10:G10"/>
@@ -1679,29 +1793,23 @@
     <mergeCell ref="H6:K7"/>
     <mergeCell ref="H8:K9"/>
     <mergeCell ref="M8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
     <mergeCell ref="A31:P33"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="A6:B7"/>
@@ -1743,8 +1851,6 @@
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="F22:G22"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
@@ -1752,14 +1858,28 @@
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M25:N25"/>
     <mergeCell ref="I25:K25"/>
+    <mergeCell ref="X14:X17"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="M19:N19"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
     <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S30" xr:uid="{38BF65C4-1EDC-4A47-9A79-AB09A0409BAD}">
+      <formula1>$W$11:$W$17</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/TM.RestHour/Import/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Import/IMOcrewlistForm5.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF6BAB2-8519-4B05-87FE-9544A7558AAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5C46E-1DBF-4B4D-89AC-76BDA3E2BD15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,240 +398,211 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,841 +946,866 @@
   <dimension ref="A1:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="4" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="8" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="20" width="12.33203125" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="4" style="5" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11" style="5" customWidth="1"/>
+    <col min="13" max="13" width="8" style="5" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="5" customWidth="1"/>
+    <col min="16" max="20" width="12.33203125" style="5" customWidth="1"/>
+    <col min="21" max="22" width="8.88671875" style="5"/>
+    <col min="23" max="23" width="15.6640625" style="5" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="5" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="51" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="54" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="49"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="12" t="s">
+      <c r="L5" s="7"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="29"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="55" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="64" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="66"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="64" t="s">
+      <c r="M6" s="24"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="28"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="25"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="28"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="25"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="55" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="64" t="s">
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="47"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="64" t="s">
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="28"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="F10" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="80"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="4" t="s">
+      <c r="J10" s="36"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="78" t="s">
+      <c r="M10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="N10" s="79"/>
-      <c r="O10" s="4" t="s">
+      <c r="N10" s="35"/>
+      <c r="O10" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="4" t="s">
+      <c r="P10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="27"/>
-      <c r="W10" t="s">
+      <c r="T10" s="37"/>
+      <c r="W10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+      <c r="A11" s="38">
         <v>1</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="26" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="44"/>
+      <c r="R11" s="44"/>
+      <c r="S11" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="W11" s="31" t="s">
+      <c r="T11" s="45"/>
+      <c r="W11" s="46" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
+      <c r="A12" s="38">
         <v>2</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="30"/>
-      <c r="W12" s="31" t="s">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="45"/>
+      <c r="W12" s="46" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+      <c r="A13" s="38">
         <v>3</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="30"/>
-      <c r="W13" s="31" t="s">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="45"/>
+      <c r="W13" s="46" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+      <c r="A14" s="38">
         <v>4</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="30"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="33" t="s">
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="45"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="52" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+      <c r="A15" s="38">
         <v>5</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="30"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="33"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="45"/>
+      <c r="W15" s="51"/>
+      <c r="X15" s="52"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+      <c r="A16" s="38">
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="30"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="33"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="45"/>
+      <c r="W16" s="51"/>
+      <c r="X16" s="52"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
+      <c r="A17" s="38">
         <v>7</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="30"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="33"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="45"/>
+      <c r="W17" s="51"/>
+      <c r="X17" s="52"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+      <c r="A18" s="38">
         <v>8</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="30"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+      <c r="A19" s="38">
         <v>9</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="30"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+      <c r="A20" s="38">
         <v>10</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="30"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="A21" s="38">
         <v>11</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="30"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
+      <c r="A22" s="38">
         <v>12</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="30"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="45"/>
     </row>
     <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+      <c r="A23" s="38">
         <v>13</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="30"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="45"/>
     </row>
     <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+      <c r="A24" s="38">
         <v>14</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="41"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="30"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="45"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+      <c r="A25" s="38">
         <v>15</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="30"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="45"/>
     </row>
     <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+      <c r="A26" s="38">
         <v>16</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="30"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="44"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="45"/>
     </row>
     <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
+      <c r="A27" s="38">
         <v>17</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="30"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="44"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="44"/>
+      <c r="P27" s="44"/>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="45"/>
     </row>
     <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
+      <c r="A28" s="38">
         <v>18</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="30"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="44"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="44"/>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="45"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
+      <c r="A29" s="38">
         <v>19</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="30"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="45"/>
     </row>
     <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="67"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="30"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="44"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="45"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="57"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="67"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="58"/>
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="60"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="69"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="70"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="63"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="X14:X17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A31:P33"/>
     <mergeCell ref="F6:G7"/>
     <mergeCell ref="A6:B7"/>
@@ -1826,54 +1822,31 @@
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="I30:K30"/>
     <mergeCell ref="M30:N30"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="X14:X17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S30" xr:uid="{38BF65C4-1EDC-4A47-9A79-AB09A0409BAD}">

--- a/TM.RestHour/Import/IMOcrewlistForm5.xlsx
+++ b/TM.RestHour/Import/IMOcrewlistForm5.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C5C46E-1DBF-4B4D-89AC-76BDA3E2BD15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DFDF80-B0BD-4CD6-9BD3-E943846EE465}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,520 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="R10" authorId="0" shapeId="0" xr:uid="{753DEC41-CF12-4781-8738-4C3C479E8379}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R11" authorId="0" shapeId="0" xr:uid="{7B5C5A68-5CC7-41A9-8004-87DE64F84DB9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R12" authorId="0" shapeId="0" xr:uid="{A811EBF8-5884-46EC-8BDD-6556EBD201BE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R13" authorId="0" shapeId="0" xr:uid="{0DC2D6E1-1F3A-46F1-BEF9-73AC226193C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R14" authorId="0" shapeId="0" xr:uid="{F8D9BC48-82F0-4552-8DDB-39D751C2D4FD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0" shapeId="0" xr:uid="{09B33A37-DD93-4E96-BAF7-A6828ED48962}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R16" authorId="0" shapeId="0" xr:uid="{97CFBD0A-B34C-4786-87D6-1F50FE70B8B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R17" authorId="0" shapeId="0" xr:uid="{0DFC5000-2339-43F2-BA92-1F765D395FE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R18" authorId="0" shapeId="0" xr:uid="{7777E49B-E6EC-483C-A589-C435000F4A1A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R19" authorId="0" shapeId="0" xr:uid="{48AEF79E-EE81-4E55-935D-79DA5E998129}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R20" authorId="0" shapeId="0" xr:uid="{8D7A7B82-CC69-41A4-8F0D-4BE48EAB542C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R21" authorId="0" shapeId="0" xr:uid="{8375AF1E-CB17-4F5C-85FD-08B8472485C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R22" authorId="0" shapeId="0" xr:uid="{48D381C9-E22F-4392-AB81-617B329C355C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R23" authorId="0" shapeId="0" xr:uid="{629E8787-BF71-484B-BF14-4FB09CEDF4D0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R24" authorId="0" shapeId="0" xr:uid="{CF32F790-12D8-4A57-A9B8-19D4454A38E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R25" authorId="0" shapeId="0" xr:uid="{915B00EF-7CD9-48AF-8687-31181700CE0D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R26" authorId="0" shapeId="0" xr:uid="{DB884CC2-90EA-4D49-8A3B-F6C161E9C563}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0" shapeId="0" xr:uid="{9D83B59F-B4E2-4D31-86D0-F21A06CEEC94}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R28" authorId="0" shapeId="0" xr:uid="{5EDAD03C-3B4E-48D1-8230-ED027E48FD44}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R29" authorId="0" shapeId="0" xr:uid="{10C61D2F-CBB2-41FD-87C1-3DC5C40A0BAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R30" authorId="0" shapeId="0" xr:uid="{EB2AB81B-F6CF-4B9E-B370-9F9269367B7E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Kindly fill up contract date.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
@@ -54,9 +568,6 @@
   </si>
   <si>
     <t>10. Nationality</t>
-  </si>
-  <si>
-    <t>11. Date of birth</t>
   </si>
   <si>
     <t>12. Place of birth</t>
@@ -95,9 +606,6 @@
     </r>
   </si>
   <si>
-    <t>17. Expiry date of identity document</t>
-  </si>
-  <si>
     <t>2.  Port of        arrival/departure</t>
   </si>
   <si>
@@ -113,12 +621,6 @@
     <t>Page no.</t>
   </si>
   <si>
-    <t>18. Service Term - From</t>
-  </si>
-  <si>
-    <t>19. Service Term - To</t>
-  </si>
-  <si>
     <t>20. Department</t>
   </si>
   <si>
@@ -138,13 +640,29 @@
   </si>
   <si>
     <t xml:space="preserve">Can add more departments in the highlighted region </t>
+  </si>
+  <si>
+    <t>11. Date of birth
+(dd-Mmm-yyyy)</t>
+  </si>
+  <si>
+    <t>17. Expiry date of identity document
+(dd-Mmm-yyyy)</t>
+  </si>
+  <si>
+    <t>18. Service Term - From
+(dd-Mmm-yyyy)</t>
+  </si>
+  <si>
+    <t>19. Service Term - To
+(dd-Mmm-yyyy)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +714,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -398,51 +929,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -452,42 +953,9 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -497,15 +965,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -516,15 +975,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,42 +988,138 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -581,28 +1127,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -942,822 +1476,898 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:G11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="4" style="5" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11" style="5" customWidth="1"/>
-    <col min="13" max="13" width="8" style="5" customWidth="1"/>
-    <col min="14" max="14" width="5.5546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" style="5" customWidth="1"/>
-    <col min="16" max="20" width="12.33203125" style="5" customWidth="1"/>
-    <col min="21" max="22" width="8.88671875" style="5"/>
-    <col min="23" max="23" width="15.6640625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="5" customWidth="1"/>
-    <col min="25" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="6.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.44140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4" style="2" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="5.5546875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="10.88671875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.77734375" style="2" customWidth="1"/>
+    <col min="19" max="20" width="12.33203125" style="2" customWidth="1"/>
+    <col min="21" max="22" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="15.6640625" style="2" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="A1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
+      <c r="A2" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="18"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23" t="s">
+      <c r="M6" s="66"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="25"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:24" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="25"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="19" t="s">
+      <c r="A8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="56"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="47"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="72"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="71"/>
+      <c r="O10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="M8" s="21"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="25"/>
-    </row>
-    <row r="9" spans="1:24" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="25"/>
-    </row>
-    <row r="10" spans="1:24" ht="46.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="33" t="s">
+      <c r="T10" s="13"/>
+      <c r="W10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="R10" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="37"/>
-      <c r="W10" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="31"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-      <c r="S11" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="T11" s="45"/>
-      <c r="W11" s="46" t="s">
-        <v>30</v>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" s="18"/>
+      <c r="W11" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="38">
+      <c r="A12" s="14">
         <v>2</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="W12" s="46" t="s">
-        <v>31</v>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="18"/>
+      <c r="W12" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="38">
+      <c r="A13" s="14">
         <v>3</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="45"/>
-      <c r="W13" s="46" t="s">
-        <v>32</v>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="18"/>
+      <c r="W13" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38">
+      <c r="A14" s="14">
         <v>4</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="40"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="45"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="52" t="s">
-        <v>33</v>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="18"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="29" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38">
+      <c r="A15" s="14">
         <v>5</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="50"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="40"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="45"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="52"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="29"/>
     </row>
     <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38">
+      <c r="A16" s="14">
         <v>6</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="45"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="52"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="18"/>
+      <c r="W16" s="22"/>
+      <c r="X16" s="29"/>
     </row>
     <row r="17" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
+      <c r="A17" s="14">
         <v>7</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="53"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="57"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="36"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="45"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="52"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="29"/>
     </row>
     <row r="18" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38">
+      <c r="A18" s="14">
         <v>8</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="36"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="45"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="18"/>
     </row>
     <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38">
+      <c r="A19" s="14">
         <v>9</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="45"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18"/>
     </row>
     <row r="20" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38">
+      <c r="A20" s="14">
         <v>10</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="45"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="18"/>
     </row>
     <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38">
+      <c r="A21" s="14">
         <v>11</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="59"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="42"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="45"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
     </row>
     <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="38">
+      <c r="A22" s="14">
         <v>12</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="59"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="42"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="45"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="18"/>
     </row>
     <row r="23" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="38">
+      <c r="A23" s="14">
         <v>13</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="59"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="45"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="18"/>
     </row>
     <row r="24" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38">
+      <c r="A24" s="14">
         <v>14</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="59"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="45"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="28"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="18"/>
     </row>
     <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38">
+      <c r="A25" s="14">
         <v>15</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="43"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="45"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="18"/>
     </row>
     <row r="26" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38">
+      <c r="A26" s="14">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="45"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="18"/>
     </row>
     <row r="27" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38">
+      <c r="A27" s="14">
         <v>17</v>
       </c>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="43"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="45"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
     </row>
     <row r="28" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="38">
+      <c r="A28" s="14">
         <v>18</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="45"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="18"/>
     </row>
     <row r="29" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38">
+      <c r="A29" s="14">
         <v>19</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="44"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="45"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
     </row>
     <row r="30" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="64"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="45"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A31" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="67"/>
+      <c r="A31" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="57"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A32" s="68"/>
-      <c r="B32" s="69"/>
-      <c r="C32" s="69"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="70"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="60"/>
     </row>
     <row r="33" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="71"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="89">
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="H6:K7"/>
+    <mergeCell ref="H8:K9"/>
+    <mergeCell ref="M8:N9"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="A31:P33"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="F8:G9"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="M6:N7"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="C8:E9"/>
+    <mergeCell ref="C6:E7"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="X14:X17"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="I19:K19"/>
@@ -1774,79 +2384,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="M15:N15"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="C8:E9"/>
-    <mergeCell ref="C6:E7"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A31:P33"/>
-    <mergeCell ref="F6:G7"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="F8:G9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="M6:N7"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="H6:K7"/>
-    <mergeCell ref="H8:K9"/>
-    <mergeCell ref="M8:N9"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="R8:R9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S30" xr:uid="{38BF65C4-1EDC-4A47-9A79-AB09A0409BAD}">
@@ -1855,5 +2392,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="landscape" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>